--- a/htmltrial/exceltrial.xlsx
+++ b/htmltrial/exceltrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trial\htmltrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C8CDA-CB9E-498B-84A1-C93828C55759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538A59D-EF1A-43B8-B671-0A50B9DB9806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>djj</t>
+  </si>
+  <si>
+    <t>mmmm</t>
   </si>
 </sst>
 </file>
@@ -345,17 +348,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/htmltrial/exceltrial.xlsx
+++ b/htmltrial/exceltrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trial\htmltrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538A59D-EF1A-43B8-B671-0A50B9DB9806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E06CE9B-CE94-4045-9129-F6AF2FB63BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>djj</t>
   </si>
   <si>
-    <t>mmmm</t>
+    <t>hdg</t>
+  </si>
+  <si>
+    <t>jsndjn</t>
   </si>
 </sst>
 </file>
@@ -348,22 +351,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/htmltrial/exceltrial.xlsx
+++ b/htmltrial/exceltrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trial\htmltrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E06CE9B-CE94-4045-9129-F6AF2FB63BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A79CD-6A72-4786-8E98-0415239D41A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>djj</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>jsndjn</t>
+  </si>
+  <si>
+    <t>nnjn</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,6 +372,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>2</v>
